--- a/public/excel/Crossfit-Wanderlust-01-Jul-2018-to-31-Jul-2018.xlsx
+++ b/public/excel/Crossfit-Wanderlust-01-Jul-2018-to-31-Jul-2018.xlsx
@@ -98,8 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="1" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -405,18 +408,18 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="1"/>
     <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="3.427734" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -430,7 +433,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -456,7 +459,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
@@ -482,7 +485,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -502,12 +505,14 @@
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4">
+        <v>3030000</v>
+      </c>
+      <c r="G4"/>
       <c r="H4">
         <v>606000</v>
       </c>
